--- a/Zadania - Analiza korelacji (1).xlsx
+++ b/Zadania - Analiza korelacji (1).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E238C-DF7A-4ABF-BD16-2A4EC67F2669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zad 1" sheetId="20" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="zad 10" sheetId="8" r:id="rId10"/>
     <sheet name="zad 11" sheetId="18" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="177">
   <si>
     <t>LZ 872ES</t>
   </si>
@@ -536,12 +537,42 @@
   </si>
   <si>
     <t>Występuje koleracja pomiędzy zawodem wykonywanym przez ojca a zawodem syna</t>
+  </si>
+  <si>
+    <t>Dostepne rangi x</t>
+  </si>
+  <si>
+    <t>Dostepne rangi y</t>
+  </si>
+  <si>
+    <t>wartość współczynnika oznacza że stan komputera jest na ogół zależny od jego wieku</t>
+  </si>
+  <si>
+    <t>zależność ta jest niska</t>
+  </si>
+  <si>
+    <t>n41</t>
+  </si>
+  <si>
+    <t>n42</t>
+  </si>
+  <si>
+    <t>n43</t>
+  </si>
+  <si>
+    <t>Współcznnik C pearsona</t>
+  </si>
+  <si>
+    <t>C max=</t>
+  </si>
+  <si>
+    <t>C skor=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -625,7 +656,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +729,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -1270,7 +1313,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1338,9 +1381,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1467,63 +1507,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,11 +1586,104 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1"/>
-    <cellStyle name="Normalny 3" xfId="2"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalny 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2731,6 +2807,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504093</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281354</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339CF353-47A1-4CC5-9602-B8950D03873D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5908431" y="248323"/>
+          <a:ext cx="3862754" cy="1898665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>503465</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2744,7 +2869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2770,7 +2901,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2787,7 +2918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2813,7 +2950,56 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285118</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608CB590-6269-496A-97A0-6646B95F17D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9044940" y="251460"/>
+          <a:ext cx="4674238" cy="2593720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2830,7 +3016,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2856,19 +3048,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>40640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>546738</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171830</xdr:rowOff>
+      <xdr:colOff>561978</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2881,8 +3079,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762750" y="2628900"/>
-          <a:ext cx="4572638" cy="2724530"/>
+          <a:off x="6951980" y="2614930"/>
+          <a:ext cx="4674238" cy="2593720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2895,9 +3093,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2935,9 +3133,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2972,7 +3170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3007,7 +3205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3180,24 +3378,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3205,143 +3403,143 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.45" customHeight="1">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:20" ht="14.4" customHeight="1">
+      <c r="A2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="85" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
       <c r="K3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.45" customHeight="1">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:20" ht="14.4" customHeight="1">
+      <c r="A4" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
       <c r="K4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="D8" s="72"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1">
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:20" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="74" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>2003</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="71">
         <v>2191172</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="71">
         <v>21261</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="71">
         <v>22807</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="71">
         <f>B10-$B$32</f>
         <v>58308.666666666511</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="76">
         <f>C10-$C$32</f>
         <v>1237.4761904761908</v>
       </c>
@@ -3349,37 +3547,37 @@
         <f>E10*F10</f>
         <v>72155586.698412523</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="76">
         <f>E10^2</f>
         <v>3399900608.4444265</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="76">
         <f>F10^2</f>
         <v>1531347.3219954658</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="60">
+      <c r="A11" s="59">
         <v>2004</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="71">
         <v>2185156</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <v>20794</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="71">
         <v>22797</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="71">
         <f t="shared" ref="E11:E30" si="0">B11-$B$32</f>
         <v>52292.666666666511</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="76">
         <f t="shared" ref="F11:F30" si="1">C11-$C$32</f>
         <v>770.47619047619082</v>
       </c>
@@ -3387,33 +3585,33 @@
         <f t="shared" ref="G11:G30" si="2">E11*F11</f>
         <v>40290254.6031745</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="76">
         <f t="shared" ref="H11:H30" si="3">E11^2</f>
         <v>2734522987.111095</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="76">
         <f t="shared" ref="I11:I30" si="4">F11^2</f>
         <v>593633.56009070342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>2005</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="71">
         <v>2179611</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="71">
         <v>21346</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="71">
         <v>23182</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="71">
         <f t="shared" si="0"/>
         <v>46747.666666666511</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="76">
         <f t="shared" si="1"/>
         <v>1322.4761904761908</v>
       </c>
@@ -3421,33 +3619,33 @@
         <f t="shared" si="2"/>
         <v>61822676.126983941</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="76">
         <f t="shared" si="3"/>
         <v>2185344338.7777634</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="76">
         <f t="shared" si="4"/>
         <v>1748943.2743764182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>2006</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="71">
         <v>2172766</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="71">
         <v>21496</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="71">
         <v>22678</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="71">
         <f t="shared" si="0"/>
         <v>39902.666666666511</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="76">
         <f t="shared" si="1"/>
         <v>1472.4761904761908</v>
       </c>
@@ -3455,33 +3653,33 @@
         <f t="shared" si="2"/>
         <v>58755726.603174388</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <f t="shared" si="3"/>
         <v>1592222807.1110988</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="76">
         <f t="shared" si="4"/>
         <v>2168186.1315192753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="60">
+      <c r="A14" s="59">
         <v>2007</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="71">
         <v>2166213</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
         <v>21795</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="71">
         <v>23323</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="71">
         <f t="shared" si="0"/>
         <v>33349.666666666511</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="76">
         <f t="shared" si="1"/>
         <v>1771.4761904761908</v>
       </c>
@@ -3489,33 +3687,33 @@
         <f t="shared" si="2"/>
         <v>59078140.460317194</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="76">
         <f t="shared" si="3"/>
         <v>1112200266.7777674</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="76">
         <f t="shared" si="4"/>
         <v>3138127.8934240374</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="60">
+      <c r="A15" s="59">
         <v>2008</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="71">
         <v>2161832</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="71">
         <v>23009</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="71">
         <v>23428</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="71">
         <f t="shared" si="0"/>
         <v>28968.666666666511</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="76">
         <f t="shared" si="1"/>
         <v>2985.4761904761908</v>
       </c>
@@ -3523,33 +3721,33 @@
         <f t="shared" si="2"/>
         <v>86485264.60317415</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="76">
         <f t="shared" si="3"/>
         <v>839183648.44443548</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="76">
         <f t="shared" si="4"/>
         <v>8913068.0839002281</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="60">
+      <c r="A16" s="59">
         <v>2009</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="71">
         <v>2157202</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="71">
         <v>22964</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="71">
         <v>23703</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="71">
         <f t="shared" si="0"/>
         <v>24338.666666666511</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="76">
         <f t="shared" si="1"/>
         <v>2940.4761904761908</v>
       </c>
@@ -3557,33 +3755,33 @@
         <f t="shared" si="2"/>
         <v>71567269.841269389</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="76">
         <f t="shared" si="3"/>
         <v>592370695.11110353</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="76">
         <f t="shared" si="4"/>
         <v>8646400.2267573718</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="60">
+      <c r="A17" s="59">
         <v>2010</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="71">
         <v>2178611</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="71">
         <v>22635</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="71">
         <v>23037</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="71">
         <f t="shared" si="0"/>
         <v>45747.666666666511</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="76">
         <f t="shared" si="1"/>
         <v>2611.4761904761908</v>
       </c>
@@ -3591,33 +3789,33 @@
         <f t="shared" si="2"/>
         <v>119468942.26984088</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <f t="shared" si="3"/>
         <v>2092849005.4444304</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="76">
         <f t="shared" si="4"/>
         <v>6819807.8934240378</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>2011</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="71">
         <v>2171857</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="71">
         <v>21363</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>22981</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="71">
         <f t="shared" si="0"/>
         <v>38993.666666666511</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="76">
         <f t="shared" si="1"/>
         <v>1339.4761904761908</v>
       </c>
@@ -3625,33 +3823,33 @@
         <f t="shared" si="2"/>
         <v>52231088.079364888</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="76">
         <f t="shared" si="3"/>
         <v>1520506040.111099</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="76">
         <f t="shared" si="4"/>
         <v>1794196.4648526087</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="60">
+      <c r="A19" s="59">
         <v>2012</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="71">
         <v>2165651</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="71">
         <v>21214</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="71">
         <v>22562</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="71">
         <f t="shared" si="0"/>
         <v>32787.666666666511</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="76">
         <f t="shared" si="1"/>
         <v>1190.4761904761908</v>
       </c>
@@ -3659,33 +3857,33 @@
         <f t="shared" si="2"/>
         <v>39032936.507936336</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="76">
         <f t="shared" si="3"/>
         <v>1075031085.4444342</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="76">
         <f t="shared" si="4"/>
         <v>1417233.5600907037</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>2013</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="71">
         <v>2156150</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="71">
         <v>19738</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="71">
         <v>22849</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="71">
         <f t="shared" si="0"/>
         <v>23286.666666666511</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="76">
         <f t="shared" si="1"/>
         <v>-285.52380952380918</v>
       </c>
@@ -3693,33 +3891,33 @@
         <f t="shared" si="2"/>
         <v>-6648897.7777777258</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="76">
         <f t="shared" si="3"/>
         <v>542268844.44443727</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="76">
         <f t="shared" si="4"/>
         <v>81523.845804988465</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="60">
+      <c r="A21" s="59">
         <v>2014</v>
       </c>
-      <c r="B21" s="72">
+      <c r="B21" s="71">
         <v>2147746</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="71">
         <v>19828</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="71">
         <v>22107</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="71">
         <f t="shared" si="0"/>
         <v>14882.666666666511</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="76">
         <f t="shared" si="1"/>
         <v>-195.52380952380918</v>
       </c>
@@ -3727,33 +3925,33 @@
         <f t="shared" si="2"/>
         <v>-2909915.682539647</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="76">
         <f t="shared" si="3"/>
         <v>221493767.11110649</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="76">
         <f t="shared" si="4"/>
         <v>38229.560090702813</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="60">
+      <c r="A22" s="59">
         <v>2015</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="71">
         <v>2139726</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="71">
         <v>19715</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="71">
         <v>22816</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="71">
         <f t="shared" si="0"/>
         <v>6862.6666666665114</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="76">
         <f t="shared" si="1"/>
         <v>-308.52380952380918</v>
       </c>
@@ -3761,33 +3959,33 @@
         <f t="shared" si="2"/>
         <v>-2117296.0634920131</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="76">
         <f t="shared" si="3"/>
         <v>47096193.777775645</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="76">
         <f t="shared" si="4"/>
         <v>95186.941043083687</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="60">
+      <c r="A23" s="59">
         <v>2016</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="71">
         <v>2133340</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="71">
         <v>19666</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="71">
         <v>22284</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="71">
         <f t="shared" si="0"/>
         <v>476.66666666651145</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="76">
         <f t="shared" si="1"/>
         <v>-357.52380952380918</v>
       </c>
@@ -3795,33 +3993,33 @@
         <f t="shared" si="2"/>
         <v>-170419.68253962687</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="76">
         <f t="shared" si="3"/>
         <v>227211.11111096313</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="76">
         <f t="shared" si="4"/>
         <v>127823.27437641699</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="60">
+      <c r="A24" s="59">
         <v>2017</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="71">
         <v>2126317</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="71">
         <v>20898</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="71">
         <v>23427</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="71">
         <f t="shared" si="0"/>
         <v>-6546.3333333334886</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="76">
         <f t="shared" si="1"/>
         <v>874.47619047619082</v>
       </c>
@@ -3829,33 +4027,33 @@
         <f t="shared" si="2"/>
         <v>-5724612.6349207731</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="76">
         <f t="shared" si="3"/>
         <v>42854480.111113146</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="76">
         <f t="shared" si="4"/>
         <v>764708.60770975112</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="60">
+      <c r="A25" s="59">
         <v>2018</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="71">
         <v>2117619</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="71">
         <v>20101</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="71">
         <v>23682</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="71">
         <f t="shared" si="0"/>
         <v>-15244.333333333489</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="76">
         <f t="shared" si="1"/>
         <v>77.476190476190823</v>
       </c>
@@ -3863,33 +4061,33 @@
         <f t="shared" si="2"/>
         <v>-1181072.8730158904</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="76">
         <f t="shared" si="3"/>
         <v>232389698.7777825</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="76">
         <f t="shared" si="4"/>
         <v>6002.5600907030012</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="60">
+      <c r="A26" s="59">
         <v>2019</v>
       </c>
-      <c r="B26" s="72">
+      <c r="B26" s="71">
         <v>2108270</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="71">
         <v>19286</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="71">
         <v>23015</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="71">
         <f t="shared" si="0"/>
         <v>-24593.333333333489</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="76">
         <f t="shared" si="1"/>
         <v>-737.52380952380918</v>
       </c>
@@ -3897,33 +4095,33 @@
         <f t="shared" si="2"/>
         <v>18138168.888888996</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="76">
         <f t="shared" si="3"/>
         <v>604832044.44445205</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="76">
         <f t="shared" si="4"/>
         <v>543941.36961451196</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="60">
+      <c r="A27" s="59">
         <v>2020</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="71">
         <v>2056908</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="71">
         <v>18034</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="71">
         <v>27244</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="71">
         <f t="shared" si="0"/>
         <v>-75955.333333333489</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="76">
         <f t="shared" si="1"/>
         <v>-1989.5238095238092</v>
       </c>
@@ -3931,33 +4129,33 @@
         <f t="shared" si="2"/>
         <v>151114944.12698442</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="76">
         <f t="shared" si="3"/>
         <v>5769212661.7778015</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="76">
         <f t="shared" si="4"/>
         <v>3958204.9886621302</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="60">
+      <c r="A28" s="59">
         <v>2021</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="71">
         <v>2038299</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="71">
         <v>16641</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="71">
         <v>30617</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="71">
         <f t="shared" si="0"/>
         <v>-94564.333333333489</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="76">
         <f t="shared" si="1"/>
         <v>-3382.5238095238092</v>
       </c>
@@ -3965,33 +4163,33 @@
         <f t="shared" si="2"/>
         <v>319866109.03174651</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="76">
         <f t="shared" si="3"/>
         <v>8942413138.7778072</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="76">
         <f t="shared" si="4"/>
         <v>11441467.321995463</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="60">
+      <c r="A29" s="59">
         <v>2022</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <v>2024637</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="71">
         <v>15218</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="71">
         <v>24924</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="71">
         <f t="shared" si="0"/>
         <v>-108226.33333333349</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="76">
         <f t="shared" si="1"/>
         <v>-4805.5238095238092</v>
       </c>
@@ -3999,33 +4197,33 @@
         <f t="shared" si="2"/>
         <v>520084221.65079439</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="76">
         <f t="shared" si="3"/>
         <v>11712939226.777811</v>
       </c>
-      <c r="I29" s="77">
+      <c r="I29" s="76">
         <f t="shared" si="4"/>
         <v>23093059.083900224</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A30" s="60">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
+      <c r="A30" s="59">
         <v>2023</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <v>2011047</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="71">
         <v>13492</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="71">
         <v>22910</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="71">
         <f t="shared" si="0"/>
         <v>-121816.33333333349</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="76">
         <f t="shared" si="1"/>
         <v>-6531.5238095238092</v>
       </c>
@@ -4033,64 +4231,64 @@
         <f t="shared" si="2"/>
         <v>795646281.55555654</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="76">
         <f t="shared" si="3"/>
         <v>14839219066.777815</v>
       </c>
-      <c r="I30" s="77">
+      <c r="I30" s="76">
         <f t="shared" si="4"/>
         <v>42660803.274376415</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="81" t="s">
+    <row r="31" spans="1:9" ht="15" thickBot="1">
+      <c r="A31" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="82">
+      <c r="B31" s="81">
         <f>SUM(B10:B30)</f>
         <v>44790130</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="81">
         <f>SUM(C10:C30)</f>
         <v>420494</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="82">
         <f>SUM(D10:D30)</f>
         <v>496373</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="79">
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="78">
         <f>SUM(G10:G30)</f>
         <v>2446985396.333334</v>
       </c>
-      <c r="H31" s="86">
+      <c r="H31" s="85">
         <f>SUM(H10:H30)</f>
         <v>60099077816.666664</v>
       </c>
-      <c r="I31" s="82">
+      <c r="I31" s="81">
         <f>SUM(I10:I30)</f>
         <v>119581895.23809525</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="75" t="s">
+    <row r="32" spans="1:9" ht="15" thickBot="1">
+      <c r="A32" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="83">
         <f>AVERAGE(B10:B30)</f>
         <v>2132863.3333333335</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="83">
         <f>AVERAGE(C10:C30)</f>
         <v>20023.523809523809</v>
       </c>
     </row>
     <row r="33" spans="4:9">
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="88">
         <f>G31/SQRT(H31*I31)</f>
         <v>0.91277714515949371</v>
       </c>
@@ -4135,10 +4333,10 @@
         <f>STDEVPA(B10:B30)</f>
         <v>53496.362945649853</v>
       </c>
-      <c r="H42" s="87" t="s">
+      <c r="H42" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="I42" s="87">
+      <c r="I42" s="86">
         <f>G40/(F42*F43)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -4158,10 +4356,10 @@
       </c>
     </row>
     <row r="48" spans="4:9">
-      <c r="F48" s="88" t="s">
+      <c r="F48" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="88">
+      <c r="G48" s="87">
         <f>PEARSON(B10:B30,C10:C30)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -4200,18 +4398,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4219,18 +4417,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1"/>
+    <row r="2" spans="1:4" ht="14.4" thickBot="1"/>
     <row r="3" spans="1:4">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="101"/>
+      <c r="D3" s="138"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="104"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
@@ -4249,7 +4447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+    <row r="6" spans="1:4" ht="14.4" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
@@ -4270,73 +4468,73 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="16384" width="9.109375" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B3" s="105" t="s">
+    <row r="2" spans="1:5" ht="14.4" thickBot="1"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="B3" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="106"/>
-      <c r="C4" s="51" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="B4" s="143"/>
+      <c r="C4" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="109"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B5" s="52" t="s">
+      <c r="E4" s="146"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="B5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="50">
         <v>140</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>250</v>
       </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B6" s="49" t="s">
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="B6" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>40</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>170</v>
       </c>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4349,47 +4547,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1"/>
+    <row r="5" spans="1:10" ht="14.4" thickBot="1"/>
     <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>12</v>
@@ -4400,14 +4598,14 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="89" t="s">
         <v>112</v>
       </c>
       <c r="H6" s="8">
@@ -4428,7 +4626,7 @@
       <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>97</v>
       </c>
       <c r="J7" s="1">
@@ -4449,14 +4647,14 @@
       <c r="D8" s="5">
         <v>9</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="57" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="1">
         <f>_xlfn.STDEV.P(C7:C16)</f>
         <v>7.854298186343577</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="57" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4473,7 +4671,7 @@
       <c r="D9" s="5">
         <v>11</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="57" t="s">
         <v>104</v>
       </c>
       <c r="H9" s="1">
@@ -4522,10 +4720,10 @@
       <c r="D12" s="5">
         <v>7</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="57" t="s">
         <v>115</v>
       </c>
       <c r="I12" s="1">
@@ -4546,7 +4744,7 @@
       <c r="D13" s="5">
         <v>2.5</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="57" t="s">
         <v>116</v>
       </c>
       <c r="I13" s="1">
@@ -4582,7 +4780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="14.4" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -4602,48 +4800,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A1" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4654,133 +4852,428 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="9.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1"/>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:12" ht="14.4" thickBot="1"/>
+    <row r="4" spans="1:12" ht="28.5" customHeight="1">
+      <c r="A4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="152">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="152">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="152">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="152">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="152">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:12" ht="14.4" thickBot="1">
+      <c r="A10" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="149">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" thickBot="1"/>
+    <row r="12" spans="1:12" ht="27.6">
+      <c r="A12" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="153">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34">
+        <f>AVERAGEA(I13:I14)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="34">
+        <f>AVERAGEA(J13:J14)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="34">
+        <f>D13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="34">
+        <f>F13^2</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="103">
+        <v>1</v>
+      </c>
+      <c r="J13" s="110">
+        <v>1</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="153">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="34">
+        <v>3</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" ref="F14:F18" si="0">D14-E14</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G14" s="34">
+        <f t="shared" ref="G14:G18" si="1">F14^2</f>
+        <v>2.25</v>
+      </c>
+      <c r="I14" s="103">
+        <v>2</v>
+      </c>
+      <c r="J14" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" thickBot="1">
+      <c r="A15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2</v>
+      </c>
+      <c r="D15" s="32">
+        <v>3</v>
+      </c>
+      <c r="E15" s="32">
+        <f>AVERAGEA(J16:J17)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="1">
+        <f>(1.5^3-2)/12</f>
+        <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="34">
+        <v>3</v>
+      </c>
+      <c r="D16" s="34">
+        <v>4</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="34">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="34">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="111">
+        <v>4</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="1">
+        <f>((1.5^3-2)+(4.5^3-2))/12</f>
+        <v>7.541666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="34">
+        <v>4</v>
+      </c>
+      <c r="D17" s="34">
+        <v>5</v>
+      </c>
+      <c r="E17" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="34">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
+      <c r="J17" s="111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="34">
+        <v>5</v>
+      </c>
+      <c r="D18" s="34">
+        <v>6</v>
+      </c>
+      <c r="E18" s="34">
+        <v>6</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="1">
+        <f>(L12^3-L12)/6-L15-L16-L13</f>
+        <v>16.343749999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" s="115">
+        <f>SUM(G13:G18)</f>
+        <v>11</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="1">
+        <f>SQRT(((L12^3-L12)/6-2*L15)*(L12^3-L12)/6-2*L16)</f>
+        <v>34.668369349211297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="K20" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="157">
+        <f>L18/L19</f>
+        <v>0.47143117218381131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="K22" s="57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="H24" s="57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="H25" s="57" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4788,315 +5281,315 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:11" ht="14.4" thickBot="1">
+      <c r="A2" s="57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="117">
+      <c r="A4" s="97">
         <v>1</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="99">
         <v>8</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="111">
+      <c r="A5" s="91">
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="93">
         <v>2</v>
       </c>
-      <c r="G5" s="57"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="111">
+      <c r="A6" s="91">
         <v>3</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="93">
         <v>4</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="111">
+      <c r="A7" s="91">
         <v>4</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="93">
         <v>6</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="111">
+      <c r="A8" s="91">
         <v>5</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="93">
         <v>2</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="111">
+      <c r="A9" s="91">
         <v>6</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="93">
         <v>1</v>
       </c>
-      <c r="G9" s="57"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="111">
+      <c r="A10" s="91">
         <v>7</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="93">
         <v>5</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="111">
+      <c r="A11" s="91">
         <v>8</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="93">
         <v>4</v>
       </c>
-      <c r="G11" s="57"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="111">
+      <c r="A12" s="91">
         <v>9</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="93">
         <v>3</v>
       </c>
-      <c r="G12" s="57"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="114">
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" thickBot="1">
+      <c r="A13" s="94">
         <v>10</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="96">
         <v>2</v>
       </c>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
-      <c r="B15" s="58" t="s">
+      <c r="G13" s="56"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4" thickBot="1">
+      <c r="B15" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29.25" thickBot="1">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:11" ht="28.2" thickBot="1">
+      <c r="A16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="90" t="s">
+      <c r="J16" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="90" t="s">
+      <c r="K16" s="89" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="63">
+      <c r="A17" s="62">
         <v>6</v>
       </c>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="64">
         <v>1</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="90">
         <v>1</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="64">
         <f>AVERAGEA(K17:K18)</f>
         <v>1.5</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="90">
         <f>D17-E17</f>
         <v>-0.5</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="64">
         <f>F17^2</f>
         <v>0.25</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="100">
         <v>1</v>
       </c>
-      <c r="K17" s="130">
+      <c r="K17" s="110">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="66">
+      <c r="A18" s="65">
         <v>2</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="121">
+      <c r="C18" s="101">
         <v>2</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <f>AVERAGEA(J18:J20)</f>
         <v>3</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="67">
         <v>1.5</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="90">
         <f t="shared" ref="F18:F26" si="0">D18-E18</f>
         <v>1.5</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="64">
         <f t="shared" ref="G18:G26" si="1">F18^2</f>
         <v>2.25</v>
       </c>
-      <c r="J18" s="123">
+      <c r="J18" s="103">
         <v>2</v>
       </c>
-      <c r="K18" s="130">
+      <c r="K18" s="110">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="66">
+      <c r="A19" s="65">
         <v>5</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C19" s="101">
         <v>2</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="66">
         <v>3</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="67">
         <v>9</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="90">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="64">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="J19" s="123">
+      <c r="J19" s="103">
         <v>3</v>
       </c>
-      <c r="K19" s="131">
+      <c r="K19" s="111">
         <v>3</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="57" t="s">
         <v>127</v>
       </c>
       <c r="N19" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1">
-      <c r="A20" s="69">
+    <row r="20" spans="1:16" ht="14.4" thickBot="1">
+      <c r="A20" s="68">
         <v>10</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="102">
         <v>2</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="69">
         <v>3</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="70">
         <f>AVERAGEA(K19:K23)</f>
         <v>5</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="90">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="64">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J20" s="123">
+      <c r="J20" s="103">
         <v>4</v>
       </c>
-      <c r="K20" s="131">
+      <c r="K20" s="111">
         <v>4</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="57" t="s">
         <v>126</v>
       </c>
       <c r="N20" s="1">
@@ -5104,68 +5597,68 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <v>9</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="67">
         <v>3</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="66">
         <v>5</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="67">
         <v>9</v>
       </c>
-      <c r="F21" s="110">
+      <c r="F21" s="90">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="64">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J21" s="1">
         <v>5</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="111">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="66">
+      <c r="A22" s="65">
         <v>3</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="121">
+      <c r="C22" s="101">
         <v>4</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="66">
         <f>AVERAGEA(J22:J23)</f>
         <v>6.5</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="67">
         <v>5</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="90">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="64">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="J22" s="123">
+      <c r="J22" s="103">
         <v>6</v>
       </c>
-      <c r="K22" s="131">
+      <c r="K22" s="111">
         <v>6</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="57" t="s">
         <v>128</v>
       </c>
       <c r="N22" s="1">
@@ -5174,36 +5667,36 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="66">
+      <c r="A23" s="65">
         <v>8</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="101">
         <v>4</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="66">
         <v>6.5</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="67">
         <v>5</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="90">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="64">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="J23" s="123">
+      <c r="J23" s="103">
         <v>7</v>
       </c>
-      <c r="K23" s="131">
+      <c r="K23" s="111">
         <v>7</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="57" t="s">
         <v>131</v>
       </c>
       <c r="N23" s="1">
@@ -5212,68 +5705,68 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="66">
+      <c r="A24" s="65">
         <v>7</v>
       </c>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="67">
         <v>5</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="66">
         <v>8</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="67">
         <f>AVERAGEA(K24:K26)</f>
         <v>9</v>
       </c>
-      <c r="F24" s="110">
+      <c r="F24" s="90">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="1">
         <v>8</v>
       </c>
-      <c r="K24" s="132">
+      <c r="K24" s="112">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="66">
+      <c r="A25" s="65">
         <v>4</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="67">
         <v>6</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="66">
         <v>9</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="67">
         <v>5</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="64">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J25" s="1">
         <v>9</v>
       </c>
-      <c r="K25" s="132">
+      <c r="K25" s="112">
         <v>9</v>
       </c>
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="57" t="s">
         <v>129</v>
       </c>
       <c r="N25" s="1">
@@ -5282,80 +5775,80 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="63">
+      <c r="A26" s="62">
         <v>1</v>
       </c>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="64">
         <v>8</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="63">
         <v>10</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="64">
         <v>5</v>
       </c>
-      <c r="F26" s="110">
+      <c r="F26" s="90">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="64">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J26" s="1">
         <v>10</v>
       </c>
-      <c r="K26" s="132">
+      <c r="K26" s="112">
         <v>10</v>
       </c>
-      <c r="M26" s="58" t="s">
+      <c r="M26" s="57" t="s">
         <v>130</v>
       </c>
       <c r="N26" s="1">
         <f>SQRT(((N19^3-N19)/6-2*N22)*(N19^3-N19)/6-2*N23)</f>
         <v>162.40381768911715</v>
       </c>
-      <c r="O26" s="138" t="s">
+      <c r="O26" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="P26" s="139"/>
+      <c r="P26" s="119"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="G27" s="135">
+      <c r="G27" s="115">
         <f>SUM(G17:G26)</f>
         <v>105</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M27" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="N27" s="136">
+      <c r="N27" s="116">
         <f>N25/N26</f>
         <v>0.27708708231318568</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="N28" s="58" t="s">
+      <c r="N28" s="57" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="M30" s="58" t="s">
+      <c r="M30" s="57" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="M31" s="58" t="s">
+      <c r="M31" s="57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="M32" s="58" t="s">
+      <c r="M32" s="57" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5366,14 +5859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5413,41 +5906,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
-    <row r="3" spans="1:5" ht="15">
-      <c r="B3" s="95" t="s">
+    <row r="2" spans="1:10" ht="14.4" thickBot="1"/>
+    <row r="3" spans="1:10">
+      <c r="B3" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="96"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1">
+      <c r="B4" s="133"/>
       <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
@@ -5457,8 +5952,11 @@
       <c r="E4" s="29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+      <c r="F4" s="159" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="28" t="s">
         <v>28</v>
       </c>
@@ -5471,8 +5969,12 @@
       <c r="E5" s="21">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+      <c r="F5" s="160">
+        <f>SUM(C5:E5)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="27" t="s">
         <v>27</v>
       </c>
@@ -5485,8 +5987,18 @@
       <c r="E6" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+      <c r="F6" s="160">
+        <f>SUM(C6:E6)</f>
+        <v>74</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="27" t="s">
         <v>26</v>
       </c>
@@ -5499,8 +6011,18 @@
       <c r="E7" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F7" s="160">
+        <f>SUM(C7:E7)</f>
+        <v>38</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>25</v>
       </c>
@@ -5513,20 +6035,383 @@
       <c r="E8" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="44" t="s">
+      <c r="F8" s="160">
+        <f>SUM(C8:E8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="158" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="115">
+        <f>SUM(C5:C8)</f>
+        <v>41</v>
+      </c>
+      <c r="D9" s="115">
+        <f>SUM(D5:D8)</f>
+        <v>69</v>
+      </c>
+      <c r="E9" s="115">
+        <f>SUM(E5:E8)</f>
+        <v>80</v>
+      </c>
+      <c r="F9" s="161">
+        <f>SUM(C9:E9)</f>
+        <v>190</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="43" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="58" t="s">
+      <c r="I10" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="1">
+        <f>SQRT(G28/(G28+190))</f>
+        <v>0.45618733557562496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="57" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="58" t="s">
+      <c r="I11" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="1">
+        <f>(SQRT((J6-1)/J6)+SQRT((J7-1)/J7))/2</f>
+        <v>0.84126099235608232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="57" t="s">
         <v>77</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="1">
+        <f>J10/J11</f>
+        <v>0.54226612159682019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2</v>
+      </c>
+      <c r="D16" s="19">
+        <f>C9*F5/F9</f>
+        <v>15.321052631578947</v>
+      </c>
+      <c r="E16" s="19">
+        <f>C16-D16</f>
+        <v>-13.321052631578947</v>
+      </c>
+      <c r="F16" s="19">
+        <f>E16^2</f>
+        <v>177.45044321329641</v>
+      </c>
+      <c r="G16" s="19">
+        <f>F16/D16</f>
+        <v>11.582131298703647</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="162" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="19">
+        <v>24</v>
+      </c>
+      <c r="D17" s="19">
+        <f>D9*F5/F9</f>
+        <v>25.784210526315789</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" ref="E17:E27" si="0">C17-D17</f>
+        <v>-1.784210526315789</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" ref="F17:F27" si="1">E17^2</f>
+        <v>3.1834072022160651</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" ref="G17:G27" si="2">F17/D17</f>
+        <v>0.12346343507267858</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="162" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="19">
+        <v>45</v>
+      </c>
+      <c r="D18" s="19">
+        <f>E9*F5/F9</f>
+        <v>29.894736842105264</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>15.105263157894736</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="1"/>
+        <v>228.16897506925207</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="2"/>
+        <v>7.6324128984432908</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="19">
+        <f>C9*F6/F9</f>
+        <v>15.968421052631578</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>3.1578947368421595E-2</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>9.9722991689754127E-4</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="2"/>
+        <v>6.2450126634981161E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="162" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="19">
+        <v>28</v>
+      </c>
+      <c r="D20" s="19">
+        <f>D9*F6/F9</f>
+        <v>26.873684210526317</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>1.1263157894736828</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2685872576177255</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="2"/>
+        <v>4.7205557960706586E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="162" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="19">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19">
+        <f>E9*F6/F9</f>
+        <v>31.157894736842106</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>-1.1578947368421062</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>1.3407202216066503</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="2"/>
+        <v>4.3029871977240466E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="162" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="19">
+        <v>18</v>
+      </c>
+      <c r="D22" s="19">
+        <f>C9*F7/F9</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
+        <v>96.04000000000002</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="2"/>
+        <v>11.712195121951224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="162" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="19">
+        <v>15</v>
+      </c>
+      <c r="D23" s="19">
+        <f>D9*F7/F9</f>
+        <v>13.8</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
+        <v>1.4399999999999984</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="2"/>
+        <v>0.10434782608695641</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="162" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="19">
+        <v>5</v>
+      </c>
+      <c r="D24" s="19">
+        <f>E9*F7/F9</f>
+        <v>16</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="G24" s="19">
+        <f t="shared" si="2"/>
+        <v>7.5625</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="19">
+        <v>5</v>
+      </c>
+      <c r="D25" s="19">
+        <f>C9*F8/F9</f>
+        <v>1.5105263157894737</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="0"/>
+        <v>3.4894736842105263</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="1"/>
+        <v>12.176426592797783</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="2"/>
+        <v>8.0610489638730964</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="162" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="19">
+        <v>2</v>
+      </c>
+      <c r="D26" s="19">
+        <f>D9*F8/F9</f>
+        <v>2.5421052631578949</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.54210526315789487</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="1"/>
+        <v>0.29387811634349043</v>
+      </c>
+      <c r="G26" s="19">
+        <f t="shared" si="2"/>
+        <v>0.11560422796120741</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="162" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <f>E9*F8/F9</f>
+        <v>2.9473684210526314</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="0"/>
+        <v>-2.9473684210526314</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="1"/>
+        <v>8.6869806094182813</v>
+      </c>
+      <c r="G27" s="19">
+        <f t="shared" si="2"/>
+        <v>2.9473684210526314</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="G28" s="115">
+        <f>SUM(G16:G27)</f>
+        <v>49.931370073209315</v>
       </c>
     </row>
   </sheetData>
@@ -5535,76 +6420,77 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" thickBot="1"/>
     <row r="4" spans="1:14">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="141" t="s">
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="121" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="B5" s="98"/>
+    <row r="5" spans="1:14" ht="14.4" thickBot="1">
+      <c r="B5" s="135"/>
       <c r="C5" s="24" t="s">
         <v>15</v>
       </c>
@@ -5614,13 +6500,13 @@
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="F5" s="122"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="14" t="s">
@@ -5635,11 +6521,11 @@
       <c r="E6" s="21">
         <v>45</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F6" s="113">
         <f>SUM(C6:E6)</f>
         <v>90</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="13" t="s">
@@ -5654,13 +6540,13 @@
       <c r="E7" s="18">
         <v>10</v>
       </c>
-      <c r="F7" s="133">
+      <c r="F7" s="113">
         <f t="shared" ref="F7:F8" si="0">SUM(C7:E7)</f>
         <v>70</v>
       </c>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.4" thickBot="1">
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
@@ -5673,312 +6559,312 @@
       <c r="E8" s="15">
         <v>70</v>
       </c>
-      <c r="F8" s="133">
+      <c r="F8" s="113">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I8" s="53"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="114">
         <f>SUM(C6:C8)</f>
         <v>60</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="114">
         <f>SUM(D6:D8)</f>
         <v>65</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="114">
         <f>SUM(E6:E8)</f>
         <v>125</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="115">
         <f>SUM(C9:E9)</f>
         <v>250</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="I11" s="53"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="143" t="s">
+      <c r="E12" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="143" t="s">
+      <c r="F12" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="I12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="144">
+      <c r="B13" s="124">
         <v>30</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="124">
         <f>F6*C9/F9</f>
         <v>21.6</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="124">
         <f>B13-C13</f>
         <v>8.3999999999999986</v>
       </c>
-      <c r="E13" s="144">
+      <c r="E13" s="124">
         <f>D13^2</f>
         <v>70.559999999999974</v>
       </c>
-      <c r="F13" s="144">
+      <c r="F13" s="124">
         <f>E13/C13</f>
         <v>3.2666666666666653</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="144">
+      <c r="B14" s="124">
         <v>15</v>
       </c>
-      <c r="C14" s="144">
+      <c r="C14" s="124">
         <f>F6*D9/F9</f>
         <v>23.4</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="124">
         <f t="shared" ref="D14:D21" si="1">B14-C14</f>
         <v>-8.3999999999999986</v>
       </c>
-      <c r="E14" s="144">
+      <c r="E14" s="124">
         <f t="shared" ref="E14:E21" si="2">D14^2</f>
         <v>70.559999999999974</v>
       </c>
-      <c r="F14" s="144">
+      <c r="F14" s="124">
         <f t="shared" ref="F14:F21" si="3">E14/C14</f>
         <v>3.0153846153846144</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="144">
+      <c r="B15" s="124">
         <v>45</v>
       </c>
-      <c r="C15" s="144">
+      <c r="C15" s="124">
         <f>F6*E9/F9</f>
         <v>45</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="144">
+      <c r="E15" s="124">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="144">
+      <c r="B16" s="124">
         <v>20</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16" s="124">
         <f>F7*C9/F9</f>
         <v>16.8</v>
       </c>
-      <c r="D16" s="144">
+      <c r="D16" s="124">
         <f t="shared" si="1"/>
         <v>3.1999999999999993</v>
       </c>
-      <c r="E16" s="144">
+      <c r="E16" s="124">
         <f t="shared" si="2"/>
         <v>10.239999999999995</v>
       </c>
-      <c r="F16" s="144">
+      <c r="F16" s="124">
         <f t="shared" si="3"/>
         <v>0.60952380952380925</v>
       </c>
-      <c r="J16" s="54"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="144">
+      <c r="B17" s="124">
         <v>40</v>
       </c>
-      <c r="C17" s="144">
+      <c r="C17" s="124">
         <f>F7*D9/F9</f>
         <v>18.2</v>
       </c>
-      <c r="D17" s="144">
+      <c r="D17" s="124">
         <f t="shared" si="1"/>
         <v>21.8</v>
       </c>
-      <c r="E17" s="144">
+      <c r="E17" s="124">
         <f t="shared" si="2"/>
         <v>475.24</v>
       </c>
-      <c r="F17" s="144">
+      <c r="F17" s="124">
         <f t="shared" si="3"/>
         <v>26.112087912087915</v>
       </c>
-      <c r="J17" s="54"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="144">
+      <c r="B18" s="124">
         <v>10</v>
       </c>
-      <c r="C18" s="144">
+      <c r="C18" s="124">
         <f>F7*E9/F9</f>
         <v>35</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="124">
         <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="E18" s="144">
+      <c r="E18" s="124">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="124">
         <f t="shared" si="3"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="L18" s="53"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="144">
+      <c r="B19" s="124">
         <v>10</v>
       </c>
-      <c r="C19" s="144">
+      <c r="C19" s="124">
         <f>F8*C9/F9</f>
         <v>21.6</v>
       </c>
-      <c r="D19" s="144">
+      <c r="D19" s="124">
         <f t="shared" si="1"/>
         <v>-11.600000000000001</v>
       </c>
-      <c r="E19" s="144">
+      <c r="E19" s="124">
         <f t="shared" si="2"/>
         <v>134.56000000000003</v>
       </c>
-      <c r="F19" s="144">
+      <c r="F19" s="124">
         <f t="shared" si="3"/>
         <v>6.2296296296296303</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="144">
+      <c r="B20" s="124">
         <v>10</v>
       </c>
-      <c r="C20" s="144">
+      <c r="C20" s="124">
         <f>F8*D9/F9</f>
         <v>23.4</v>
       </c>
-      <c r="D20" s="144">
+      <c r="D20" s="124">
         <f t="shared" si="1"/>
         <v>-13.399999999999999</v>
       </c>
-      <c r="E20" s="144">
+      <c r="E20" s="124">
         <f t="shared" si="2"/>
         <v>179.55999999999997</v>
       </c>
-      <c r="F20" s="144">
+      <c r="F20" s="124">
         <f t="shared" si="3"/>
         <v>7.6735042735042729</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="144">
+      <c r="B21" s="124">
         <v>70</v>
       </c>
-      <c r="C21" s="144">
+      <c r="C21" s="124">
         <f>F8*E9/F9</f>
         <v>45</v>
       </c>
-      <c r="D21" s="144">
+      <c r="D21" s="124">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E21" s="144">
+      <c r="E21" s="124">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="F21" s="144">
+      <c r="F21" s="124">
         <f t="shared" si="3"/>
         <v>13.888888888888889</v>
       </c>
-      <c r="J21" s="54"/>
-    </row>
-    <row r="22" spans="1:12" ht="15">
-      <c r="E22" s="53"/>
-      <c r="F22" s="145">
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="E22" s="52"/>
+      <c r="F22" s="125">
         <f>SUM(F13:F21)</f>
         <v>78.65282865282866</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="58" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="57" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="E23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="E23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="J24" s="54"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>163</v>
       </c>
       <c r="E25" s="1">
@@ -5986,28 +6872,28 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="57" t="s">
         <v>161</v>
       </c>
       <c r="B26" s="1">
         <f>SQRT(F22/(F22+250))</f>
         <v>0.48920229501599483</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>164</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="127"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>162</v>
       </c>
       <c r="B28" s="1">
@@ -6016,16 +6902,16 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="137">
+      <c r="B29" s="117">
         <f>0.48/B28</f>
         <v>0.58787753826796274</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6041,14 +6927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
